--- a/Logics.xlsx
+++ b/Logics.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sumit.raj\Desktop\SDE\leetcode Questions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sumit.raj\Desktop\SDE\DSA-github\leetcode_dsa-java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{881186D1-54FE-4775-98ED-EE4E6A5B52D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B307D292-705D-4E9F-ADEE-D75178F99EF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="140">
   <si>
     <t>LOGIC</t>
   </si>
@@ -511,6 +511,9 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/binary-tree-right-side-view/</t>
+  </si>
+  <si>
+    <t>same logic as BFS traversal, jjust include at last in for loop as if(i == (size - 1)) { result.add(temp.val) ;} , because we have to add the value of last node present in the queue which will comes under our right view.</t>
   </si>
 </sst>
 </file>
@@ -853,8 +856,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" zoomScale="138" workbookViewId="0">
-      <selection activeCell="A70" sqref="A70"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="138" workbookViewId="0">
+      <selection activeCell="I70" sqref="I70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1628,6 +1631,12 @@
     <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
         <v>138</v>
+      </c>
+      <c r="G70" t="s">
+        <v>4</v>
+      </c>
+      <c r="I70" t="s">
+        <v>139</v>
       </c>
     </row>
   </sheetData>

--- a/Logics.xlsx
+++ b/Logics.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sumit.raj\Desktop\SDE\DSA-github\leetcode_dsa-java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B307D292-705D-4E9F-ADEE-D75178F99EF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4576ED1F-C10D-4E42-9BB9-0D5105EDD17F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1416" yWindow="936" windowWidth="21624" windowHeight="11304" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="144">
   <si>
     <t>LOGIC</t>
   </si>
@@ -514,6 +514,18 @@
   </si>
   <si>
     <t>same logic as BFS traversal, jjust include at last in for loop as if(i == (size - 1)) { result.add(temp.val) ;} , because we have to add the value of last node present in the queue which will comes under our right view.</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/construct-quad-tree/</t>
+  </si>
+  <si>
+    <t>create a helper method build for calling it recursively whenever some cell value doesn’t match. Take first cell value as reference and compare it inside for -for loop with other call vales, if at any point it doesn’t match break both loops with setting any flag like isSame=false. if isSame then return a noew node(fristVal==1, true). Else create four subgrids as topLeft, topRight,bottomLeft,bottomRight with new size =size/2 and passing the differennt values for row and col for each quadrant. At last return a new Node(true,false,tL,tR,bL,bR).</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/count-good-nodes-in-binary-tree/</t>
+  </si>
+  <si>
+    <t>Use DFS Preorder for traversal , keep track of max value after recursively call to process each node, and in a node is good Node if goodNode = node.val &gt;= maxVal?1:0.</t>
   </si>
 </sst>
 </file>
@@ -854,10 +866,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O70"/>
+  <dimension ref="A1:O72"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A64" zoomScale="138" workbookViewId="0">
-      <selection activeCell="I70" sqref="I70"/>
+      <selection activeCell="I72" sqref="I72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1637,6 +1649,28 @@
       </c>
       <c r="I70" t="s">
         <v>139</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A71" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="G71" t="s">
+        <v>4</v>
+      </c>
+      <c r="I71" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A72" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="G72" t="s">
+        <v>4</v>
+      </c>
+      <c r="I72" t="s">
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -1691,6 +1725,8 @@
     <hyperlink ref="A68" r:id="rId48" xr:uid="{8AFF741F-6844-4DC1-877F-A827C07D6E01}"/>
     <hyperlink ref="A69" r:id="rId49" xr:uid="{E601C366-FE78-47A3-BF43-CDFB88B22095}"/>
     <hyperlink ref="A70" r:id="rId50" xr:uid="{28CEE045-F46F-408A-B6CB-9EC5D52A7A5C}"/>
+    <hyperlink ref="A71" r:id="rId51" xr:uid="{272B7ACC-9976-4AC5-8B77-C4E9CDF1E4E4}"/>
+    <hyperlink ref="A72" r:id="rId52" xr:uid="{2E7F7279-B158-4EE5-899E-93EB6239D89C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>

--- a/Logics.xlsx
+++ b/Logics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sumit.raj\Desktop\SDE\DSA-github\leetcode_dsa-java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4576ED1F-C10D-4E42-9BB9-0D5105EDD17F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7B3B50D-350E-4B83-815E-21EB360EEEC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1416" yWindow="936" windowWidth="21624" windowHeight="11304" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="146">
   <si>
     <t>LOGIC</t>
   </si>
@@ -526,6 +526,12 @@
   </si>
   <si>
     <t>Use DFS Preorder for traversal , keep track of max value after recursively call to process each node, and in a node is good Node if goodNode = node.val &gt;= maxVal?1:0.</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/validate-binary-search-tree/</t>
+  </si>
+  <si>
+    <t>use Long.MIN_VALUE and Long.MAX_VALUE to validate that every node value should come in this range, progressively the min =-infinity and max=node.val for left tree dfs and min=node.val ,max= + infinity for right dfs recursion. Make sure to return the result combinely for both left and right subtree recursion.I fwe observe in range updation , the left node value should always be less than the node.val and it may be anything which will lie in range of -inifinity to node.val, and vice-versa for right side child.</t>
   </si>
 </sst>
 </file>
@@ -866,10 +872,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O72"/>
+  <dimension ref="A1:O73"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A64" zoomScale="138" workbookViewId="0">
-      <selection activeCell="I72" sqref="I72"/>
+      <selection activeCell="I73" sqref="I73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1671,6 +1677,17 @@
       </c>
       <c r="I72" t="s">
         <v>143</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A73" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="G73" t="s">
+        <v>4</v>
+      </c>
+      <c r="I73" t="s">
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -1727,6 +1744,7 @@
     <hyperlink ref="A70" r:id="rId50" xr:uid="{28CEE045-F46F-408A-B6CB-9EC5D52A7A5C}"/>
     <hyperlink ref="A71" r:id="rId51" xr:uid="{272B7ACC-9976-4AC5-8B77-C4E9CDF1E4E4}"/>
     <hyperlink ref="A72" r:id="rId52" xr:uid="{2E7F7279-B158-4EE5-899E-93EB6239D89C}"/>
+    <hyperlink ref="A73" r:id="rId53" xr:uid="{F518804A-3F12-4A18-83E4-78205DFD6391}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>

--- a/Logics.xlsx
+++ b/Logics.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sumit.raj\Desktop\SDE\DSA-github\leetcode_dsa-java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7B3B50D-350E-4B83-815E-21EB360EEEC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F85868E9-F123-4D33-A6C2-1BEA39A31A0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1416" yWindow="936" windowWidth="21624" windowHeight="11304" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="148">
   <si>
     <t>LOGIC</t>
   </si>
@@ -532,6 +532,12 @@
   </si>
   <si>
     <t>use Long.MIN_VALUE and Long.MAX_VALUE to validate that every node value should come in this range, progressively the min =-infinity and max=node.val for left tree dfs and min=node.val ,max= + infinity for right dfs recursion. Make sure to return the result combinely for both left and right subtree recursion.I fwe observe in range updation , the left node value should always be less than the node.val and it may be anything which will lie in range of -inifinity to node.val, and vice-versa for right side child.</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/kth-smallest-element-in-a-bst/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Use DFS INORDER traversal , maintaina global counter so that it cant be reset every time in recursive call of function, with a var result to assign the node val if(counter ==k). Make dfsInorder as void and simply call it in kthSmallest method , and return result in kthSmallest.  </t>
   </si>
 </sst>
 </file>
@@ -872,10 +878,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O73"/>
+  <dimension ref="A1:O74"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A64" zoomScale="138" workbookViewId="0">
-      <selection activeCell="I73" sqref="I73"/>
+      <selection activeCell="I74" sqref="I74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1688,6 +1694,17 @@
       </c>
       <c r="I73" t="s">
         <v>145</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A74" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="G74" t="s">
+        <v>4</v>
+      </c>
+      <c r="I74" t="s">
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -1745,6 +1762,7 @@
     <hyperlink ref="A71" r:id="rId51" xr:uid="{272B7ACC-9976-4AC5-8B77-C4E9CDF1E4E4}"/>
     <hyperlink ref="A72" r:id="rId52" xr:uid="{2E7F7279-B158-4EE5-899E-93EB6239D89C}"/>
     <hyperlink ref="A73" r:id="rId53" xr:uid="{F518804A-3F12-4A18-83E4-78205DFD6391}"/>
+    <hyperlink ref="A74" r:id="rId54" xr:uid="{657559D3-11DB-4BE4-BA00-77F6780188EB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>

--- a/Logics.xlsx
+++ b/Logics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sumit.raj\Desktop\SDE\DSA-github\leetcode_dsa-java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F85868E9-F123-4D33-A6C2-1BEA39A31A0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6878402-784B-4FBE-B18D-811194894918}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="150">
   <si>
     <t>LOGIC</t>
   </si>
@@ -538,6 +538,12 @@
   </si>
   <si>
     <t xml:space="preserve">Use DFS INORDER traversal , maintaina global counter so that it cant be reset every time in recursive call of function, with a var result to assign the node val if(counter ==k). Make dfsInorder as void and simply call it in kthSmallest method , and return result in kthSmallest.  </t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/construct-binary-tree-from-preorder-and-inorder-traversal/</t>
+  </si>
+  <si>
+    <t>Traverse Preorder array and take its each element because it follows root-left-right, then find the index of each element in inorder (use map for storing the key as element and value=index for inorder array). After finding index split the inorder array recursively in left and right subtree, as root.left = build(pre,si,rootIndex-1), root.right=(pre,rootIndex+1,ei). At last return the rootNode.</t>
   </si>
 </sst>
 </file>
@@ -878,10 +884,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O74"/>
+  <dimension ref="A1:O75"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A64" zoomScale="138" workbookViewId="0">
-      <selection activeCell="I74" sqref="I74"/>
+      <selection activeCell="M64" sqref="M64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1705,6 +1711,17 @@
       </c>
       <c r="I74" t="s">
         <v>147</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A75" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="G75" t="s">
+        <v>4</v>
+      </c>
+      <c r="I75" t="s">
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -1763,6 +1780,7 @@
     <hyperlink ref="A72" r:id="rId52" xr:uid="{2E7F7279-B158-4EE5-899E-93EB6239D89C}"/>
     <hyperlink ref="A73" r:id="rId53" xr:uid="{F518804A-3F12-4A18-83E4-78205DFD6391}"/>
     <hyperlink ref="A74" r:id="rId54" xr:uid="{657559D3-11DB-4BE4-BA00-77F6780188EB}"/>
+    <hyperlink ref="A75" r:id="rId55" xr:uid="{7B8CDA49-0F1C-4B4D-A2E2-A1AD2028395E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>

--- a/Logics.xlsx
+++ b/Logics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sumit.raj\Desktop\SDE\DSA-github\leetcode_dsa-java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6878402-784B-4FBE-B18D-811194894918}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A093D9E-914A-4EBC-A17C-A5DB7D6546DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="152">
   <si>
     <t>LOGIC</t>
   </si>
@@ -544,6 +544,12 @@
   </si>
   <si>
     <t>Traverse Preorder array and take its each element because it follows root-left-right, then find the index of each element in inorder (use map for storing the key as element and value=index for inorder array). After finding index split the inorder array recursively in left and right subtree, as root.left = build(pre,si,rootIndex-1), root.right=(pre,rootIndex+1,ei). At last return the rootNode.</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/house-robber-iii/</t>
+  </si>
+  <si>
+    <t>Use modified DFS approach, we can only rob the node in two ways, either from root, root.left.left, root.left.right and root, root.right.right, root.right.left. Basicallly use pair approach [withRoot,withoutRoot], in which the withRoot=root.val+leftPair[1]+rightPair[1], withoutRoot= max(leftPair[0],leftPair[1])+max(rightPair[0],rightPair[1]). At last return the max of pair using max(pair[0],pair[1]).</t>
   </si>
 </sst>
 </file>
@@ -884,10 +890,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O75"/>
+  <dimension ref="A1:O76"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A64" zoomScale="138" workbookViewId="0">
-      <selection activeCell="M64" sqref="M64"/>
+      <selection activeCell="I76" sqref="I76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1722,6 +1728,17 @@
       </c>
       <c r="I75" t="s">
         <v>149</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A76" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="G76" t="s">
+        <v>4</v>
+      </c>
+      <c r="I76" t="s">
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -1781,6 +1798,7 @@
     <hyperlink ref="A73" r:id="rId53" xr:uid="{F518804A-3F12-4A18-83E4-78205DFD6391}"/>
     <hyperlink ref="A74" r:id="rId54" xr:uid="{657559D3-11DB-4BE4-BA00-77F6780188EB}"/>
     <hyperlink ref="A75" r:id="rId55" xr:uid="{7B8CDA49-0F1C-4B4D-A2E2-A1AD2028395E}"/>
+    <hyperlink ref="A76" r:id="rId56" xr:uid="{5232C98D-B5FC-41AC-9721-C3ACDD2C931E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>

--- a/Logics.xlsx
+++ b/Logics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sumit.raj\Desktop\SDE\DSA-github\leetcode_dsa-java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A093D9E-914A-4EBC-A17C-A5DB7D6546DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{736DE100-3D6D-4449-B431-F2E9F2DD23E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="153">
   <si>
     <t>LOGIC</t>
   </si>
@@ -550,6 +550,9 @@
   </si>
   <si>
     <t>Use modified DFS approach, we can only rob the node in two ways, either from root, root.left.left, root.left.right and root, root.right.right, root.right.left. Basicallly use pair approach [withRoot,withoutRoot], in which the withRoot=root.val+leftPair[1]+rightPair[1], withoutRoot= max(leftPair[0],leftPair[1])+max(rightPair[0],rightPair[1]). At last return the max of pair using max(pair[0],pair[1]).</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/delete-leaves-with-a-given-value/</t>
   </si>
 </sst>
 </file>
@@ -890,10 +893,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O76"/>
+  <dimension ref="A1:O77"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A64" zoomScale="138" workbookViewId="0">
-      <selection activeCell="I76" sqref="I76"/>
+      <selection activeCell="G77" sqref="G77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1739,6 +1742,14 @@
       </c>
       <c r="I76" t="s">
         <v>151</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A77" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="G77" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1799,6 +1810,7 @@
     <hyperlink ref="A74" r:id="rId54" xr:uid="{657559D3-11DB-4BE4-BA00-77F6780188EB}"/>
     <hyperlink ref="A75" r:id="rId55" xr:uid="{7B8CDA49-0F1C-4B4D-A2E2-A1AD2028395E}"/>
     <hyperlink ref="A76" r:id="rId56" xr:uid="{5232C98D-B5FC-41AC-9721-C3ACDD2C931E}"/>
+    <hyperlink ref="A77" r:id="rId57" xr:uid="{AEEBD9EE-05FF-467C-9357-F612421405CF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>

--- a/Logics.xlsx
+++ b/Logics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sumit.raj\Desktop\SDE\DSA-github\leetcode_dsa-java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{736DE100-3D6D-4449-B431-F2E9F2DD23E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{909E6AC5-C5F7-4B97-BD33-A2B54B08FABC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="154">
   <si>
     <t>LOGIC</t>
   </si>
@@ -553,6 +553,9 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/delete-leaves-with-a-given-value/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Use DFS(PostOrder) because we need to check the node before processing , because we will not going to know whether this node has to be removed or not if we will use preorder or inorder. With if(root.left==null &amp;&amp; root.right==null &amp;&amp; root.val==val) then return null for the current node to simply delete or remove it. Else at last return that node means we have to keep the current node because its not the leaf with matching the target. </t>
   </si>
 </sst>
 </file>
@@ -896,7 +899,7 @@
   <dimension ref="A1:O77"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A64" zoomScale="138" workbookViewId="0">
-      <selection activeCell="G77" sqref="G77"/>
+      <selection activeCell="I77" sqref="I77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1750,6 +1753,9 @@
       </c>
       <c r="G77" t="s">
         <v>4</v>
+      </c>
+      <c r="I77" t="s">
+        <v>153</v>
       </c>
     </row>
   </sheetData>

--- a/Logics.xlsx
+++ b/Logics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sumit.raj\Desktop\SDE\DSA-github\leetcode_dsa-java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{909E6AC5-C5F7-4B97-BD33-A2B54B08FABC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFD0C48A-8F48-4BEC-9292-4002B0DB2CEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="156">
   <si>
     <t>LOGIC</t>
   </si>
@@ -556,6 +556,12 @@
   </si>
   <si>
     <t xml:space="preserve">Use DFS(PostOrder) because we need to check the node before processing , because we will not going to know whether this node has to be removed or not if we will use preorder or inorder. With if(root.left==null &amp;&amp; root.right==null &amp;&amp; root.val==val) then return null for the current node to simply delete or remove it. Else at last return that node means we have to keep the current node because its not the leaf with matching the target. </t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/kth-largest-element-in-a-stream/</t>
+  </si>
+  <si>
+    <t>Use minHeap priorityQueue, so here we will maintain the the heap size as k and polling the element if(heap.size()&gt;k) at any instNt. So by doing this, the kth largest element will always be the root or say on the top which will be peeked() to return the result.</t>
   </si>
 </sst>
 </file>
@@ -896,10 +902,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O77"/>
+  <dimension ref="A1:O78"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A64" zoomScale="138" workbookViewId="0">
-      <selection activeCell="I77" sqref="I77"/>
+      <selection activeCell="I78" sqref="I78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1756,6 +1762,17 @@
       </c>
       <c r="I77" t="s">
         <v>153</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A78" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="G78" t="s">
+        <v>4</v>
+      </c>
+      <c r="I78" t="s">
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -1817,6 +1834,7 @@
     <hyperlink ref="A75" r:id="rId55" xr:uid="{7B8CDA49-0F1C-4B4D-A2E2-A1AD2028395E}"/>
     <hyperlink ref="A76" r:id="rId56" xr:uid="{5232C98D-B5FC-41AC-9721-C3ACDD2C931E}"/>
     <hyperlink ref="A77" r:id="rId57" xr:uid="{AEEBD9EE-05FF-467C-9357-F612421405CF}"/>
+    <hyperlink ref="A78" r:id="rId58" xr:uid="{5067DA5A-74E3-4E8B-8389-9AF891FE4F8E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>

--- a/Logics.xlsx
+++ b/Logics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sumit.raj\Desktop\SDE\DSA-github\leetcode_dsa-java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFD0C48A-8F48-4BEC-9292-4002B0DB2CEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{181C86FA-0D88-41A2-99BF-44F1FD2CC5F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="158">
   <si>
     <t>LOGIC</t>
   </si>
@@ -562,6 +562,12 @@
   </si>
   <si>
     <t>Use minHeap priorityQueue, so here we will maintain the the heap size as k and polling the element if(heap.size()&gt;k) at any instNt. So by doing this, the kth largest element will always be the root or say on the top which will be peeked() to return the result.</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/last-stone-weight/</t>
+  </si>
+  <si>
+    <t>Use maxHeap priorityQueue for solving ths problem, first add all elements to pq then run while loop until pq.size()&gt;1 because we have smash the stones until 0 or 1 stone remains.In while , add the diff to pq only when its &gt; 0 because in case of 0 the stone has been smashed .Return the peeked element if pq.size()&gt;0 else 0 means all stones smashed.</t>
   </si>
 </sst>
 </file>
@@ -902,10 +908,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O78"/>
+  <dimension ref="A1:O79"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A64" zoomScale="138" workbookViewId="0">
-      <selection activeCell="I78" sqref="I78"/>
+      <selection activeCell="I79" sqref="I79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1773,6 +1779,17 @@
       </c>
       <c r="I78" t="s">
         <v>155</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A79" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="G79" t="s">
+        <v>4</v>
+      </c>
+      <c r="I79" t="s">
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -1835,6 +1852,7 @@
     <hyperlink ref="A76" r:id="rId56" xr:uid="{5232C98D-B5FC-41AC-9721-C3ACDD2C931E}"/>
     <hyperlink ref="A77" r:id="rId57" xr:uid="{AEEBD9EE-05FF-467C-9357-F612421405CF}"/>
     <hyperlink ref="A78" r:id="rId58" xr:uid="{5067DA5A-74E3-4E8B-8389-9AF891FE4F8E}"/>
+    <hyperlink ref="A79" r:id="rId59" xr:uid="{83A5A060-EFB2-4D85-B182-84E335410FFA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>

--- a/Logics.xlsx
+++ b/Logics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sumit.raj\Desktop\SDE\DSA-github\leetcode_dsa-java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{181C86FA-0D88-41A2-99BF-44F1FD2CC5F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DEEDEB9-D233-412D-97D5-81F73CF960D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="159">
   <si>
     <t>LOGIC</t>
   </si>
@@ -568,6 +568,9 @@
   </si>
   <si>
     <t>Use maxHeap priorityQueue for solving ths problem, first add all elements to pq then run while loop until pq.size()&gt;1 because we have smash the stones until 0 or 1 stone remains.In while , add the diff to pq only when its &gt; 0 because in case of 0 the stone has been smashed .Return the peeked element if pq.size()&gt;0 else 0 means all stones smashed.</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/k-closest-points-to-origin/</t>
   </si>
 </sst>
 </file>
@@ -908,10 +911,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O79"/>
+  <dimension ref="A1:O80"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A64" zoomScale="138" workbookViewId="0">
-      <selection activeCell="I79" sqref="I79"/>
+      <selection activeCell="I71" sqref="I71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1790,6 +1793,11 @@
       </c>
       <c r="I79" t="s">
         <v>157</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A80" s="2" t="s">
+        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -1853,6 +1861,7 @@
     <hyperlink ref="A77" r:id="rId57" xr:uid="{AEEBD9EE-05FF-467C-9357-F612421405CF}"/>
     <hyperlink ref="A78" r:id="rId58" xr:uid="{5067DA5A-74E3-4E8B-8389-9AF891FE4F8E}"/>
     <hyperlink ref="A79" r:id="rId59" xr:uid="{83A5A060-EFB2-4D85-B182-84E335410FFA}"/>
+    <hyperlink ref="A80" r:id="rId60" xr:uid="{48EF1115-DF39-4B1C-88FB-BD3842A18151}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>

--- a/Logics.xlsx
+++ b/Logics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sumit.raj\Desktop\SDE\DSA-github\leetcode_dsa-java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DEEDEB9-D233-412D-97D5-81F73CF960D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78452F38-377F-49CB-803C-5CDF5C1B265E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="160">
   <si>
     <t>LOGIC</t>
   </si>
@@ -571,6 +571,9 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/k-closest-points-to-origin/</t>
+  </si>
+  <si>
+    <t>we will sort the heap or PQ in descending order to maintain the k closest points to the origin. Loop the points array , take current and find the dist between the points, then offer it to pq with the index of the current array in points 2d arrray, so that we can access the inner array to store it in result. After offering, if pq.size()&gt; k then poll it. So we are sorting the pq in descending order it means the farthest point form the origin will always be on top and will be remoed continously whenever a closest points to the origin will be added to PQ.</t>
   </si>
 </sst>
 </file>
@@ -914,7 +917,7 @@
   <dimension ref="A1:O80"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A64" zoomScale="138" workbookViewId="0">
-      <selection activeCell="I71" sqref="I71"/>
+      <selection activeCell="I80" sqref="I80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1798,6 +1801,12 @@
     <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
         <v>158</v>
+      </c>
+      <c r="G80" t="s">
+        <v>4</v>
+      </c>
+      <c r="I80" t="s">
+        <v>159</v>
       </c>
     </row>
   </sheetData>

--- a/Logics.xlsx
+++ b/Logics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sumit.raj\Desktop\SDE\DSA-github\leetcode_dsa-java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78452F38-377F-49CB-803C-5CDF5C1B265E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4A01D9C-25B1-4CF2-916A-0E87575A070F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="162">
   <si>
     <t>LOGIC</t>
   </si>
@@ -574,6 +574,12 @@
   </si>
   <si>
     <t>we will sort the heap or PQ in descending order to maintain the k closest points to the origin. Loop the points array , take current and find the dist between the points, then offer it to pq with the index of the current array in points 2d arrray, so that we can access the inner array to store it in result. After offering, if pq.size()&gt; k then poll it. So we are sorting the pq in descending order it means the farthest point form the origin will always be on top and will be remoed continously whenever a closest points to the origin will be added to PQ.</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/kth-largest-element-in-an-array/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Use minHeap so that the minimum element will be at top and get removed whenever a new element will be added to maintain the heap size of k largest elements with this we will get the kth largest element at top after traversing all the elements in the array with maintaining the size of pq of k. </t>
   </si>
 </sst>
 </file>
@@ -914,10 +920,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O80"/>
+  <dimension ref="A1:O81"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A64" zoomScale="138" workbookViewId="0">
-      <selection activeCell="I80" sqref="I80"/>
+      <selection activeCell="I81" sqref="I81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1807,6 +1813,17 @@
       </c>
       <c r="I80" t="s">
         <v>159</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A81" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="G81" t="s">
+        <v>4</v>
+      </c>
+      <c r="I81" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -1871,6 +1888,7 @@
     <hyperlink ref="A78" r:id="rId58" xr:uid="{5067DA5A-74E3-4E8B-8389-9AF891FE4F8E}"/>
     <hyperlink ref="A79" r:id="rId59" xr:uid="{83A5A060-EFB2-4D85-B182-84E335410FFA}"/>
     <hyperlink ref="A80" r:id="rId60" xr:uid="{48EF1115-DF39-4B1C-88FB-BD3842A18151}"/>
+    <hyperlink ref="A81" r:id="rId61" xr:uid="{C2414E4E-43A9-4C6D-B40C-7ACB14F51A12}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>

--- a/Logics.xlsx
+++ b/Logics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sumit.raj\Desktop\SDE\DSA-github\leetcode_dsa-java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4A01D9C-25B1-4CF2-916A-0E87575A070F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{190A2ADB-C82A-4747-9D08-F074C4C7B5C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="164">
   <si>
     <t>LOGIC</t>
   </si>
@@ -580,6 +580,12 @@
   </si>
   <si>
     <t xml:space="preserve">Use minHeap so that the minimum element will be at top and get removed whenever a new element will be added to maintain the heap size of k largest elements with this we will get the kth largest element at top after traversing all the elements in the array with maintaining the size of pq of k. </t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/task-scheduler/</t>
+  </si>
+  <si>
+    <t>First use hashmap to store the frequency of each character, then use maxHeap for storing the frequencies by getting from map.values() in decreasing order. Track of interval and increment it in looping till while(!pq.isEmpty() || queue.isEMpty(). Use a queue for cooldown period for storing the freq with the ready time for it. After processing each task from heap , then check in cooldown period queue and add the freq which have readyTIme == currentTIme , back to heap for processing again. Make sure while adding to coolDown period that remFreq should be greater than 1 otherwise its of no use to put in cooldown period.</t>
   </si>
 </sst>
 </file>
@@ -920,10 +926,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O81"/>
+  <dimension ref="A1:O82"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A64" zoomScale="138" workbookViewId="0">
-      <selection activeCell="I81" sqref="I81"/>
+      <selection activeCell="I82" sqref="I82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1824,6 +1830,17 @@
       </c>
       <c r="I81" t="s">
         <v>161</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A82" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="G82" t="s">
+        <v>4</v>
+      </c>
+      <c r="I82" t="s">
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -1889,6 +1906,7 @@
     <hyperlink ref="A79" r:id="rId59" xr:uid="{83A5A060-EFB2-4D85-B182-84E335410FFA}"/>
     <hyperlink ref="A80" r:id="rId60" xr:uid="{48EF1115-DF39-4B1C-88FB-BD3842A18151}"/>
     <hyperlink ref="A81" r:id="rId61" xr:uid="{C2414E4E-43A9-4C6D-B40C-7ACB14F51A12}"/>
+    <hyperlink ref="A82" r:id="rId62" xr:uid="{E2BDA73C-C558-45BC-BF45-F17949C4200B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>

--- a/Logics.xlsx
+++ b/Logics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sumit.raj\Desktop\SDE\DSA-github\leetcode_dsa-java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{190A2ADB-C82A-4747-9D08-F074C4C7B5C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A1AAC50-FC99-41CA-9AF1-31CC0DF0597A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="168">
   <si>
     <t>LOGIC</t>
   </si>
@@ -586,6 +586,18 @@
   </si>
   <si>
     <t>First use hashmap to store the frequency of each character, then use maxHeap for storing the frequencies by getting from map.values() in decreasing order. Track of interval and increment it in looping till while(!pq.isEmpty() || queue.isEMpty(). Use a queue for cooldown period for storing the freq with the ready time for it. After processing each task from heap , then check in cooldown period queue and add the freq which have readyTIme == currentTIme , back to heap for processing again. Make sure while adding to coolDown period that remFreq should be greater than 1 otherwise its of no use to put in cooldown period.</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/single-threaded-cpu/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/design-twitter/</t>
+  </si>
+  <si>
+    <t>Use hashmap for storing the followers with their followees, use hashset with array inside it for storing the tweets with tweets id's. Whenever anyone follow or unfollow then we will update follow and unfollow methods with the followed map. Whenever a user post a tweet then add that tweet with tweet id to tweet linkedList or hashset we have created. For getting the news feed with latest 10 tweets, we will loop through all the followers of a followee with maintaing the newsFeed size as &lt;=10 for returning as result.</t>
+  </si>
+  <si>
+    <t>sort tasks by enqueuetime so we know which tasks available first. Use a min-heap (priority queue) to pick tasks with the smallest processing time (and smallest index if tied). Simulate time — add all tasks whose enqueueTime ≤ currentTime into the heap. Process from the heap, updating currentTime and adding processed task indices to the result order.</t>
   </si>
 </sst>
 </file>
@@ -926,10 +938,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O82"/>
+  <dimension ref="A1:O84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="138" workbookViewId="0">
-      <selection activeCell="I82" sqref="I82"/>
+    <sheetView tabSelected="1" topLeftCell="A77" zoomScale="138" workbookViewId="0">
+      <selection activeCell="I84" sqref="I84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1841,6 +1853,28 @@
       </c>
       <c r="I82" t="s">
         <v>163</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A83" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="G83" t="s">
+        <v>4</v>
+      </c>
+      <c r="I83" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A84" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="G84" t="s">
+        <v>4</v>
+      </c>
+      <c r="I84" t="s">
+        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -1907,6 +1941,8 @@
     <hyperlink ref="A80" r:id="rId60" xr:uid="{48EF1115-DF39-4B1C-88FB-BD3842A18151}"/>
     <hyperlink ref="A81" r:id="rId61" xr:uid="{C2414E4E-43A9-4C6D-B40C-7ACB14F51A12}"/>
     <hyperlink ref="A82" r:id="rId62" xr:uid="{E2BDA73C-C558-45BC-BF45-F17949C4200B}"/>
+    <hyperlink ref="A83" r:id="rId63" xr:uid="{AC5FB982-7D0F-4538-811C-1E590C1DBB13}"/>
+    <hyperlink ref="A84" r:id="rId64" xr:uid="{93701901-E4EB-4DDA-BA18-35B3D8667C6B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>

--- a/Logics.xlsx
+++ b/Logics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sumit.raj\Desktop\SDE\DSA-github\leetcode_dsa-java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A1AAC50-FC99-41CA-9AF1-31CC0DF0597A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FE80810-4174-4E62-B2EC-9732E0D56261}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="170">
   <si>
     <t>LOGIC</t>
   </si>
@@ -598,6 +598,12 @@
   </si>
   <si>
     <t>sort tasks by enqueuetime so we know which tasks available first. Use a min-heap (priority queue) to pick tasks with the smallest processing time (and smallest index if tied). Simulate time — add all tasks whose enqueueTime ≤ currentTime into the heap. Process from the heap, updating currentTime and adding processed task indices to the result order.</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/reorganize-string/</t>
+  </si>
+  <si>
+    <t>first create freqMap to store each character with their frequency, then add all entries of the map to heap(using maxheap) and sort it based on the values of each entry which is freq. Run while till maxHeap is empty, take two most frequent characters from heap keeping track with prev and current, fetch the current key and add to result and dec its value by 1 each time, if still freq&gt; 0 then assign it to prev so that we can add it back to heap for processing . At last verify the result string by comparing each character if anyone matches with its previous char then return directly as "". Also make sure to check for feasibility at starting means if any char freq is more than (s.length() +1) /2 then return "" because in this case there is no psosibility to create a string with no adjacent characters.</t>
   </si>
 </sst>
 </file>
@@ -938,10 +944,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O84"/>
+  <dimension ref="A1:O85"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A77" zoomScale="138" workbookViewId="0">
-      <selection activeCell="I84" sqref="I84"/>
+      <selection activeCell="I85" sqref="I85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1875,6 +1881,17 @@
       </c>
       <c r="I84" t="s">
         <v>167</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A85" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="G85" t="s">
+        <v>4</v>
+      </c>
+      <c r="I85" t="s">
+        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -1943,6 +1960,7 @@
     <hyperlink ref="A82" r:id="rId62" xr:uid="{E2BDA73C-C558-45BC-BF45-F17949C4200B}"/>
     <hyperlink ref="A83" r:id="rId63" xr:uid="{AC5FB982-7D0F-4538-811C-1E590C1DBB13}"/>
     <hyperlink ref="A84" r:id="rId64" xr:uid="{93701901-E4EB-4DDA-BA18-35B3D8667C6B}"/>
+    <hyperlink ref="A85" r:id="rId65" xr:uid="{D23822B4-B08B-4DD7-A7E9-FFF8EA5191A7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>

--- a/Logics.xlsx
+++ b/Logics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sumit.raj\Desktop\SDE\DSA-github\leetcode_dsa-java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FE80810-4174-4E62-B2EC-9732E0D56261}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1449B099-6F2C-4669-9E02-03DD52E3BE34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="172">
   <si>
     <t>LOGIC</t>
   </si>
@@ -604,6 +604,12 @@
   </si>
   <si>
     <t>first create freqMap to store each character with their frequency, then add all entries of the map to heap(using maxheap) and sort it based on the values of each entry which is freq. Run while till maxHeap is empty, take two most frequent characters from heap keeping track with prev and current, fetch the current key and add to result and dec its value by 1 each time, if still freq&gt; 0 then assign it to prev so that we can add it back to heap for processing . At last verify the result string by comparing each character if anyone matches with its previous char then return directly as "". Also make sure to check for feasibility at starting means if any char freq is more than (s.length() +1) /2 then return "" because in this case there is no psosibility to create a string with no adjacent characters.</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/longest-happy-string/</t>
+  </si>
+  <si>
+    <t>Create a freqMap to store the freq of 3 chars, then use maxHeap for storing those entries of map to heap by sorting them on basis of freq in heap using (b.getValue() -a.getValue()) in constructor of pq. Run while(!pq.isEmpty()) , take current and result last two char for checking with current key, if last two char matches then poll the next entry and append its key, else append the current entry key to result, make sure to decrement the freq each time for both next and current on both condition and if freq &gt; 0 then only offer it to maxHeap.</t>
   </si>
 </sst>
 </file>
@@ -944,10 +950,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O85"/>
+  <dimension ref="A1:O86"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A77" zoomScale="138" workbookViewId="0">
-      <selection activeCell="I85" sqref="I85"/>
+      <selection activeCell="I86" sqref="I86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1892,6 +1898,17 @@
       </c>
       <c r="I85" t="s">
         <v>169</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A86" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="G86" t="s">
+        <v>4</v>
+      </c>
+      <c r="I86" t="s">
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -1961,6 +1978,7 @@
     <hyperlink ref="A83" r:id="rId63" xr:uid="{AC5FB982-7D0F-4538-811C-1E590C1DBB13}"/>
     <hyperlink ref="A84" r:id="rId64" xr:uid="{93701901-E4EB-4DDA-BA18-35B3D8667C6B}"/>
     <hyperlink ref="A85" r:id="rId65" xr:uid="{D23822B4-B08B-4DD7-A7E9-FFF8EA5191A7}"/>
+    <hyperlink ref="A86" r:id="rId66" xr:uid="{5ECAF136-7B3E-4514-B46E-16C422D8CE71}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>

--- a/Logics.xlsx
+++ b/Logics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sumit.raj\Desktop\SDE\DSA-github\leetcode_dsa-java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1449B099-6F2C-4669-9E02-03DD52E3BE34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13A76A4C-C0D3-4AB1-8261-8E537D0D65DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="173">
   <si>
     <t>LOGIC</t>
   </si>
@@ -610,6 +610,9 @@
   </si>
   <si>
     <t>Create a freqMap to store the freq of 3 chars, then use maxHeap for storing those entries of map to heap by sorting them on basis of freq in heap using (b.getValue() -a.getValue()) in constructor of pq. Run while(!pq.isEmpty()) , take current and result last two char for checking with current key, if last two char matches then poll the next entry and append its key, else append the current entry key to result, make sure to decrement the freq each time for both next and current on both condition and if freq &gt; 0 then only offer it to maxHeap.</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/car-pooling/</t>
   </si>
 </sst>
 </file>
@@ -950,10 +953,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O86"/>
+  <dimension ref="A1:O87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A77" zoomScale="138" workbookViewId="0">
-      <selection activeCell="I86" sqref="I86"/>
+    <sheetView tabSelected="1" topLeftCell="B78" zoomScale="138" workbookViewId="0">
+      <selection activeCell="I87" sqref="I87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1909,6 +1912,14 @@
       </c>
       <c r="I86" t="s">
         <v>171</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A87" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="G87" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1979,6 +1990,7 @@
     <hyperlink ref="A84" r:id="rId64" xr:uid="{93701901-E4EB-4DDA-BA18-35B3D8667C6B}"/>
     <hyperlink ref="A85" r:id="rId65" xr:uid="{D23822B4-B08B-4DD7-A7E9-FFF8EA5191A7}"/>
     <hyperlink ref="A86" r:id="rId66" xr:uid="{5ECAF136-7B3E-4514-B46E-16C422D8CE71}"/>
+    <hyperlink ref="A87" r:id="rId67" xr:uid="{D5FA8DCD-DE88-4E43-B2B6-B1268575E84F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>

--- a/Logics.xlsx
+++ b/Logics.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sumit.raj\Desktop\SDE\DSA-github\leetcode_dsa-java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13A76A4C-C0D3-4AB1-8261-8E537D0D65DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35960C67-9716-4DE6-9A0D-5165093F6BC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="177">
   <si>
     <t>LOGIC</t>
   </si>
@@ -613,6 +613,18 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/car-pooling/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/sum-of-all-subset-xor-totals/</t>
+  </si>
+  <si>
+    <t>use min heap, for storign all the trips by drop off time, pop top and drop the tourists who have completed their trip and subtract those from totalTourists, return the totalTIme or whatever asked to return.</t>
+  </si>
+  <si>
+    <t>Use backtracking with recursion, basically using DFS here. Use index and currentSum for soring all the subsets xor sums which is required, first include all the elements of the array one by one to create the subset and include theire xor with currentSum, then exclude each one by one from last and dont include their sum to currentSum. return include + exclude sum at last.</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/subsets/</t>
   </si>
 </sst>
 </file>
@@ -953,10 +965,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O87"/>
+  <dimension ref="A1:O89"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B78" zoomScale="138" workbookViewId="0">
-      <selection activeCell="I87" sqref="I87"/>
+      <selection activeCell="B89" sqref="B89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1920,6 +1932,25 @@
       </c>
       <c r="G87" t="s">
         <v>4</v>
+      </c>
+      <c r="I87" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B88" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="G88" t="s">
+        <v>4</v>
+      </c>
+      <c r="I88" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B89" s="2" t="s">
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -1991,6 +2022,8 @@
     <hyperlink ref="A85" r:id="rId65" xr:uid="{D23822B4-B08B-4DD7-A7E9-FFF8EA5191A7}"/>
     <hyperlink ref="A86" r:id="rId66" xr:uid="{5ECAF136-7B3E-4514-B46E-16C422D8CE71}"/>
     <hyperlink ref="A87" r:id="rId67" xr:uid="{D5FA8DCD-DE88-4E43-B2B6-B1268575E84F}"/>
+    <hyperlink ref="B88" r:id="rId68" xr:uid="{713D6F0B-C71E-49FC-BA96-94550C5F0A20}"/>
+    <hyperlink ref="B89" r:id="rId69" xr:uid="{A64078FF-5516-44B3-BC76-5030CA81E31A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>

--- a/Logics.xlsx
+++ b/Logics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sumit.raj\Desktop\SDE\DSA-github\leetcode_dsa-java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35960C67-9716-4DE6-9A0D-5165093F6BC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0122A2AA-BFD3-423D-BCB7-A55E2F1672A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="178">
   <si>
     <t>LOGIC</t>
   </si>
@@ -625,6 +625,9 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/subsets/</t>
+  </si>
+  <si>
+    <t>In backtracking, first add the copy of currentPath then run for loop from i=index to nums.lenght() to add all the element of nums to currentpath in order to get all the possibilities. Backtrack with incrementing I in for which means adding one element at each interation and recursive call, then undo the last step means the last added element by doing currentPath.remove(currentPath.size() -1). Return the result at in main function.</t>
   </si>
 </sst>
 </file>
@@ -968,7 +971,7 @@
   <dimension ref="A1:O89"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B78" zoomScale="138" workbookViewId="0">
-      <selection activeCell="B89" sqref="B89"/>
+      <selection activeCell="I89" sqref="I89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1951,6 +1954,12 @@
     <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B89" s="2" t="s">
         <v>176</v>
+      </c>
+      <c r="G89" t="s">
+        <v>4</v>
+      </c>
+      <c r="I89" t="s">
+        <v>177</v>
       </c>
     </row>
   </sheetData>

--- a/Logics.xlsx
+++ b/Logics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sumit.raj\Desktop\SDE\DSA-github\leetcode_dsa-java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0122A2AA-BFD3-423D-BCB7-A55E2F1672A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{241971FF-4EC3-4BB7-A545-B711D7E36695}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="179">
   <si>
     <t>LOGIC</t>
   </si>
@@ -628,6 +628,9 @@
   </si>
   <si>
     <t>In backtracking, first add the copy of currentPath then run for loop from i=index to nums.lenght() to add all the element of nums to currentpath in order to get all the possibilities. Backtrack with incrementing I in for which means adding one element at each interation and recursive call, then undo the last step means the last added element by doing currentPath.remove(currentPath.size() -1). Return the result at in main function.</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/combination-sum/</t>
   </si>
 </sst>
 </file>
@@ -968,10 +971,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O89"/>
+  <dimension ref="A1:O90"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B78" zoomScale="138" workbookViewId="0">
-      <selection activeCell="I89" sqref="I89"/>
+      <selection activeCell="I90" sqref="I90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1960,6 +1963,14 @@
       </c>
       <c r="I89" t="s">
         <v>177</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B90" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="G90" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -2033,6 +2044,7 @@
     <hyperlink ref="A87" r:id="rId67" xr:uid="{D5FA8DCD-DE88-4E43-B2B6-B1268575E84F}"/>
     <hyperlink ref="B88" r:id="rId68" xr:uid="{713D6F0B-C71E-49FC-BA96-94550C5F0A20}"/>
     <hyperlink ref="B89" r:id="rId69" xr:uid="{A64078FF-5516-44B3-BC76-5030CA81E31A}"/>
+    <hyperlink ref="B90" r:id="rId70" xr:uid="{2BDE796C-3E28-4A7C-AA76-F4BD37AF4AFF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>

--- a/Logics.xlsx
+++ b/Logics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sumit.raj\Desktop\SDE\DSA-github\leetcode_dsa-java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{241971FF-4EC3-4BB7-A545-B711D7E36695}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A590D1BC-AF55-4495-916A-39A6D2436BAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="182">
   <si>
     <t>LOGIC</t>
   </si>
@@ -631,6 +631,15 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/combination-sum/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/combination-sum-ii/</t>
+  </si>
+  <si>
+    <t>Include the current element to currentComb and then backtrack it with subtracting that element value from target because we will be having remaining target as to complete using other element and we can make a check like if(target ==0) then include that currentComb to combination set. After including ,do the exclude means undo the last step or remove the last added element then backtrack again but with index +1 means will adding another elelment to produc the combination with other elements (think of decision tree). Two base case, first as discussed above and 2nd, if(target &lt;0 || index==array.length) ,because we cant have target in negative and if it reaches to last element then return.</t>
+  </si>
+  <si>
+    <t>same as combinations sum, but make sure of these points. Sort the candidate array first, inside backtrack run a for loop and inside it check for duplicates, if found then continue also if target &gt; cand[i] then break because then combinations are not possible. Call backtrack once only after including the cand[i] with index as i + 1, because now we have to check for another element to create the combination.</t>
   </si>
 </sst>
 </file>
@@ -971,10 +980,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O90"/>
+  <dimension ref="A1:O91"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B78" zoomScale="138" workbookViewId="0">
-      <selection activeCell="I90" sqref="I90"/>
+      <selection activeCell="I91" sqref="I91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1971,6 +1980,20 @@
       </c>
       <c r="G90" t="s">
         <v>4</v>
+      </c>
+      <c r="I90" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B91" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="G91" t="s">
+        <v>4</v>
+      </c>
+      <c r="I91" t="s">
+        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -2045,6 +2068,7 @@
     <hyperlink ref="B88" r:id="rId68" xr:uid="{713D6F0B-C71E-49FC-BA96-94550C5F0A20}"/>
     <hyperlink ref="B89" r:id="rId69" xr:uid="{A64078FF-5516-44B3-BC76-5030CA81E31A}"/>
     <hyperlink ref="B90" r:id="rId70" xr:uid="{2BDE796C-3E28-4A7C-AA76-F4BD37AF4AFF}"/>
+    <hyperlink ref="B91" r:id="rId71" xr:uid="{4E6BF096-E727-4D63-AAA5-6CE5B5ED437F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>

--- a/Logics.xlsx
+++ b/Logics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sumit.raj\Desktop\SDE\DSA-github\leetcode_dsa-java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A590D1BC-AF55-4495-916A-39A6D2436BAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5C52C2E-D82D-49B4-BF5F-15D3EC30C5DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="184">
   <si>
     <t>LOGIC</t>
   </si>
@@ -640,6 +640,12 @@
   </si>
   <si>
     <t>same as combinations sum, but make sure of these points. Sort the candidate array first, inside backtrack run a for loop and inside it check for duplicates, if found then continue also if target &gt; cand[i] then break because then combinations are not possible. Call backtrack once only after including the cand[i] with index as i + 1, because now we have to check for another element to create the combination.</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/combinations/</t>
+  </si>
+  <si>
+    <t>Same logics of include backtrack and exclude, Base case will be if current.size() == k then include it to result and return. Later run a for loop from start to end, inside the loop , first include the element to current then backtrack with i+1 as we have to build combination of i and all other elements present in the range, at last exclude the last added element or simpky undo the last step.</t>
   </si>
 </sst>
 </file>
@@ -980,10 +986,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O91"/>
+  <dimension ref="A1:O92"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B78" zoomScale="138" workbookViewId="0">
-      <selection activeCell="I91" sqref="I91"/>
+      <selection activeCell="I92" sqref="I92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1994,6 +2000,17 @@
       </c>
       <c r="I91" t="s">
         <v>181</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B92" t="s">
+        <v>182</v>
+      </c>
+      <c r="G92" t="s">
+        <v>4</v>
+      </c>
+      <c r="I92" t="s">
+        <v>183</v>
       </c>
     </row>
   </sheetData>

--- a/Logics.xlsx
+++ b/Logics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sumit.raj\Desktop\SDE\DSA-github\leetcode_dsa-java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5C52C2E-D82D-49B4-BF5F-15D3EC30C5DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBCECCE5-B528-432A-BE59-354652C0A246}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="186">
   <si>
     <t>LOGIC</t>
   </si>
@@ -646,6 +646,12 @@
   </si>
   <si>
     <t>Same logics of include backtrack and exclude, Base case will be if current.size() == k then include it to result and return. Later run a for loop from start to end, inside the loop , first include the element to current then backtrack with i+1 as we have to build combination of i and all other elements present in the range, at last exclude the last added element or simpky undo the last step.</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/permutations/</t>
+  </si>
+  <si>
+    <t>Use a boolean array to keep track of whether the current element has been used or not , because we cant have the same element twice in the current path. We keep track of the usability by index of the elements in the used boolean array. Inside backtrack and inside for loop, if used[i] then continue because we cant use the same element, then add element to current path and make used[i]=true, then backtrack then remove the last element and make the used[i]=false because its removed now and not present in the current path can be used again.</t>
   </si>
 </sst>
 </file>
@@ -986,10 +992,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O92"/>
+  <dimension ref="A1:O93"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B78" zoomScale="138" workbookViewId="0">
-      <selection activeCell="I92" sqref="I92"/>
+      <selection activeCell="I93" sqref="I93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2011,6 +2017,17 @@
       </c>
       <c r="I92" t="s">
         <v>183</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B93" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="G93" t="s">
+        <v>4</v>
+      </c>
+      <c r="I93" t="s">
+        <v>185</v>
       </c>
     </row>
   </sheetData>
@@ -2086,6 +2103,7 @@
     <hyperlink ref="B89" r:id="rId69" xr:uid="{A64078FF-5516-44B3-BC76-5030CA81E31A}"/>
     <hyperlink ref="B90" r:id="rId70" xr:uid="{2BDE796C-3E28-4A7C-AA76-F4BD37AF4AFF}"/>
     <hyperlink ref="B91" r:id="rId71" xr:uid="{4E6BF096-E727-4D63-AAA5-6CE5B5ED437F}"/>
+    <hyperlink ref="B93" r:id="rId72" xr:uid="{78A46EBB-7856-4171-9877-892962192773}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>

--- a/Logics.xlsx
+++ b/Logics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sumit.raj\Desktop\SDE\DSA-github\leetcode_dsa-java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBCECCE5-B528-432A-BE59-354652C0A246}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4631491-583A-4B4E-B696-843951C60832}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="187">
   <si>
     <t>LOGIC</t>
   </si>
@@ -652,6 +652,9 @@
   </si>
   <si>
     <t>Use a boolean array to keep track of whether the current element has been used or not , because we cant have the same element twice in the current path. We keep track of the usability by index of the elements in the used boolean array. Inside backtrack and inside for loop, if used[i] then continue because we cant use the same element, then add element to current path and make used[i]=true, then backtrack then remove the last element and make the used[i]=false because its removed now and not present in the current path can be used again.</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/subsets-ii/</t>
   </si>
 </sst>
 </file>
@@ -992,10 +995,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O93"/>
+  <dimension ref="A1:O94"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B78" zoomScale="138" workbookViewId="0">
-      <selection activeCell="I93" sqref="I93"/>
+      <selection activeCell="B94" sqref="B94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2028,6 +2031,11 @@
       </c>
       <c r="I93" t="s">
         <v>185</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B94" s="2" t="s">
+        <v>186</v>
       </c>
     </row>
   </sheetData>
@@ -2104,6 +2112,7 @@
     <hyperlink ref="B90" r:id="rId70" xr:uid="{2BDE796C-3E28-4A7C-AA76-F4BD37AF4AFF}"/>
     <hyperlink ref="B91" r:id="rId71" xr:uid="{4E6BF096-E727-4D63-AAA5-6CE5B5ED437F}"/>
     <hyperlink ref="B93" r:id="rId72" xr:uid="{78A46EBB-7856-4171-9877-892962192773}"/>
+    <hyperlink ref="B94" r:id="rId73" xr:uid="{FB34C429-A02E-41A8-899C-56299ECD583E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>

--- a/Logics.xlsx
+++ b/Logics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sumit.raj\Desktop\SDE\DSA-github\leetcode_dsa-java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4631491-583A-4B4E-B696-843951C60832}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33431543-50F4-4D64-8FA5-430FB9A5D5D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="188">
   <si>
     <t>LOGIC</t>
   </si>
@@ -655,6 +655,9 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/subsets-ii/</t>
+  </si>
+  <si>
+    <t>Make sure to sort the array at starting which is required to prevent the  duplicate subsets. Thens same steps of running for loop, inside that check for duplocate subsets using, if(i&gt;index &amp;&amp;nums[i]==nums[i-1]) continue, we are comparing here I with index because we want to make sure that no duplicates at the current recursion level which wwe will folllow for further levels onwards. Then include-&gt; backtrack(i+1)-&gt; exclude, make sure to pass as i+1 and not index+1 because we  have to find the subset by combining all the avaialble elements with current index element.</t>
   </si>
 </sst>
 </file>
@@ -998,7 +1001,7 @@
   <dimension ref="A1:O94"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B78" zoomScale="138" workbookViewId="0">
-      <selection activeCell="B94" sqref="B94"/>
+      <selection activeCell="I94" sqref="I94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2036,6 +2039,12 @@
     <row r="94" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B94" s="2" t="s">
         <v>186</v>
+      </c>
+      <c r="G94" t="s">
+        <v>4</v>
+      </c>
+      <c r="I94" t="s">
+        <v>187</v>
       </c>
     </row>
   </sheetData>

--- a/Logics.xlsx
+++ b/Logics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sumit.raj\Desktop\SDE\DSA-github\leetcode_dsa-java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33431543-50F4-4D64-8FA5-430FB9A5D5D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C193F6B7-EBEB-4662-903B-4AA35B6D1C8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="190">
   <si>
     <t>LOGIC</t>
   </si>
@@ -658,6 +658,12 @@
   </si>
   <si>
     <t>Make sure to sort the array at starting which is required to prevent the  duplicate subsets. Thens same steps of running for loop, inside that check for duplocate subsets using, if(i&gt;index &amp;&amp;nums[i]==nums[i-1]) continue, we are comparing here I with index because we want to make sure that no duplicates at the current recursion level which wwe will folllow for further levels onwards. Then include-&gt; backtrack(i+1)-&gt; exclude, make sure to pass as i+1 and not index+1 because we  have to find the subset by combining all the avaialble elements with current index element.</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/permutations-ii/</t>
+  </si>
+  <si>
+    <t>In permutations , make sure of first sorting the array and use used[] boolean array to keep track of the used and unused elements to avoid the duplicates. In permutations, we adda extra condition to avoid the duplicates that is, if(i&gt;0 &amp;&amp;nums[i-1]==nums[i] &amp;&amp; !used[i-1]) continue, i&gt;0 means we are checking at the same recursion level,! used[i-1] means if the previous dupicate has not  been used means the checking order is wrong and it can leads to create the duplicate by combining with previous element because it has marked as unused.</t>
   </si>
 </sst>
 </file>
@@ -998,10 +1004,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O94"/>
+  <dimension ref="A1:O95"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B78" zoomScale="138" workbookViewId="0">
-      <selection activeCell="I94" sqref="I94"/>
+      <selection activeCell="I95" sqref="I95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2045,6 +2051,17 @@
       </c>
       <c r="I94" t="s">
         <v>187</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B95" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="G95" t="s">
+        <v>4</v>
+      </c>
+      <c r="I95" t="s">
+        <v>189</v>
       </c>
     </row>
   </sheetData>
@@ -2122,6 +2139,7 @@
     <hyperlink ref="B91" r:id="rId71" xr:uid="{4E6BF096-E727-4D63-AAA5-6CE5B5ED437F}"/>
     <hyperlink ref="B93" r:id="rId72" xr:uid="{78A46EBB-7856-4171-9877-892962192773}"/>
     <hyperlink ref="B94" r:id="rId73" xr:uid="{FB34C429-A02E-41A8-899C-56299ECD583E}"/>
+    <hyperlink ref="B95" r:id="rId74" xr:uid="{CF7A17BF-E8F3-4C8B-9A65-A768BC783EF9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>

--- a/Logics.xlsx
+++ b/Logics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sumit.raj\Desktop\SDE\DSA-github\leetcode_dsa-java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C193F6B7-EBEB-4662-903B-4AA35B6D1C8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09945755-D125-454B-8C6A-699D58A03B61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="191">
   <si>
     <t>LOGIC</t>
   </si>
@@ -664,6 +664,9 @@
   </si>
   <si>
     <t>In permutations , make sure of first sorting the array and use used[] boolean array to keep track of the used and unused elements to avoid the duplicates. In permutations, we adda extra condition to avoid the duplicates that is, if(i&gt;0 &amp;&amp;nums[i-1]==nums[i] &amp;&amp; !used[i-1]) continue, i&gt;0 means we are checking at the same recursion level,! used[i-1] means if the previous dupicate has not  been used means the checking order is wrong and it can leads to create the duplicate by combining with previous element because it has marked as unused.</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/word-search/</t>
   </si>
 </sst>
 </file>
@@ -1004,10 +1007,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O95"/>
+  <dimension ref="A1:O96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B78" zoomScale="138" workbookViewId="0">
-      <selection activeCell="I95" sqref="I95"/>
+    <sheetView tabSelected="1" topLeftCell="A83" zoomScale="138" workbookViewId="0">
+      <selection activeCell="H96" sqref="H96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2062,6 +2065,14 @@
       </c>
       <c r="I95" t="s">
         <v>189</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B96" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="G96" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -2140,6 +2151,7 @@
     <hyperlink ref="B93" r:id="rId72" xr:uid="{78A46EBB-7856-4171-9877-892962192773}"/>
     <hyperlink ref="B94" r:id="rId73" xr:uid="{FB34C429-A02E-41A8-899C-56299ECD583E}"/>
     <hyperlink ref="B95" r:id="rId74" xr:uid="{CF7A17BF-E8F3-4C8B-9A65-A768BC783EF9}"/>
+    <hyperlink ref="B96" r:id="rId75" xr:uid="{3C985415-142A-4BEC-B75D-EB7C7CC768E8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>

--- a/Logics.xlsx
+++ b/Logics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sumit.raj\Desktop\SDE\DSA-github\leetcode_dsa-java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09945755-D125-454B-8C6A-699D58A03B61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5832704-8FB3-4D7A-A671-1908F7A9E5CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="192">
   <si>
     <t>LOGIC</t>
   </si>
@@ -667,6 +667,9 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/word-search/</t>
+  </si>
+  <si>
+    <t>This solution uses backtracking to generate all valid combinations of parentheses. It keeps track of how many opening and closing brackets have been used so far. At each step, it adds an opening bracket if it’s still allowed, or a closing bracket if it keeps the string valid. When the current string reaches twice the length of n, it’s added to the final list as a valid combination.</t>
   </si>
 </sst>
 </file>
@@ -1007,10 +1010,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O96"/>
+  <dimension ref="A1:O97"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A83" zoomScale="138" workbookViewId="0">
-      <selection activeCell="H96" sqref="H96"/>
+      <selection activeCell="I97" sqref="I97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2073,6 +2076,17 @@
       </c>
       <c r="G96" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A97" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G97" t="s">
+        <v>4</v>
+      </c>
+      <c r="I97" t="s">
+        <v>191</v>
       </c>
     </row>
   </sheetData>
@@ -2152,6 +2166,7 @@
     <hyperlink ref="B94" r:id="rId73" xr:uid="{FB34C429-A02E-41A8-899C-56299ECD583E}"/>
     <hyperlink ref="B95" r:id="rId74" xr:uid="{CF7A17BF-E8F3-4C8B-9A65-A768BC783EF9}"/>
     <hyperlink ref="B96" r:id="rId75" xr:uid="{3C985415-142A-4BEC-B75D-EB7C7CC768E8}"/>
+    <hyperlink ref="A97" r:id="rId76" xr:uid="{73E01CDD-735E-4623-A26B-9B0924A37B06}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>

--- a/Logics.xlsx
+++ b/Logics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sumit.raj\Desktop\SDE\DSA-github\leetcode_dsa-java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5832704-8FB3-4D7A-A671-1908F7A9E5CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD54350D-3254-43AD-BF92-9825029D63A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -669,7 +669,7 @@
     <t>https://leetcode.com/problems/word-search/</t>
   </si>
   <si>
-    <t>This solution uses backtracking to generate all valid combinations of parentheses. It keeps track of how many opening and closing brackets have been used so far. At each step, it adds an opening bracket if it’s still allowed, or a closing bracket if it keeps the string valid. When the current string reaches twice the length of n, it’s added to the final list as a valid combination.</t>
+    <t>This solution uses backtracking to generate all valid combinations of parentheses. It keeps track of how many opening and closing brackets have been used so far. At each step, it adds an opening bracket if it’s still allowed, or a closing bracket if it keeps the string valid. When the current string reaches twice the length of n, it’s added to the final list as a valid combination. so mostly take care of two conditions while adding the open braces (open&lt;=max) and close braces (close&lt;=open), while calling the recursion for both separately, because for addition of both we have separate conditions and requirements.</t>
   </si>
 </sst>
 </file>

--- a/Logics.xlsx
+++ b/Logics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sumit.raj\Desktop\SDE\DSA-github\leetcode_dsa-java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD54350D-3254-43AD-BF92-9825029D63A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3ADCDFE-7566-4A54-9DC1-A6AA82B7A7D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Logics.xlsx
+++ b/Logics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sumit.raj\Desktop\SDE\DSA-github\leetcode_dsa-java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3ADCDFE-7566-4A54-9DC1-A6AA82B7A7D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B63A3A74-B692-44BC-BAC5-58610111E693}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="193">
   <si>
     <t>LOGIC</t>
   </si>
@@ -670,6 +670,9 @@
   </si>
   <si>
     <t>This solution uses backtracking to generate all valid combinations of parentheses. It keeps track of how many opening and closing brackets have been used so far. At each step, it adds an opening bracket if it’s still allowed, or a closing bracket if it keeps the string valid. When the current string reaches twice the length of n, it’s added to the final list as a valid combination. so mostly take care of two conditions while adding the open braces (open&lt;=max) and close braces (close&lt;=open), while calling the recursion for both separately, because for addition of both we have separate conditions and requirements.</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/palindrome-partitioning/</t>
   </si>
 </sst>
 </file>
@@ -1010,10 +1013,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O97"/>
+  <dimension ref="A1:O98"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A83" zoomScale="138" workbookViewId="0">
-      <selection activeCell="I97" sqref="I97"/>
+      <selection activeCell="A98" sqref="A98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2087,6 +2090,11 @@
       </c>
       <c r="I97" t="s">
         <v>191</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>192</v>
       </c>
     </row>
   </sheetData>

--- a/Logics.xlsx
+++ b/Logics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sumit.raj\Desktop\SDE\DSA-github\leetcode_dsa-java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B63A3A74-B692-44BC-BAC5-58610111E693}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46E13E92-CEE8-4ABC-9DA3-1FB946951A7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="194">
   <si>
     <t>LOGIC</t>
   </si>
@@ -673,6 +673,9 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/palindrome-partitioning/</t>
+  </si>
+  <si>
+    <t>This solution uses DFS with backtracking to check if a given word can be formed by sequentially adjacent letters in the grid.It starts a recursive search from every cell matching the word’s first letter, exploring in all four directions (up, down, left, right).Each visited cell is temporarily marked to prevent reuse within the same path, then unmarked (backtracked) after exploration.The recursion succeeds if all characters in the word are found consecutively and returns true once a full match is formed.</t>
   </si>
 </sst>
 </file>
@@ -1015,8 +1018,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A83" zoomScale="138" workbookViewId="0">
-      <selection activeCell="A98" sqref="A98"/>
+    <sheetView tabSelected="1" topLeftCell="A86" zoomScale="138" workbookViewId="0">
+      <selection activeCell="I96" sqref="I96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2080,6 +2083,9 @@
       <c r="G96" t="s">
         <v>4</v>
       </c>
+      <c r="I96" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
@@ -2095,6 +2101,9 @@
     <row r="98" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>192</v>
+      </c>
+      <c r="G98" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Logics.xlsx
+++ b/Logics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sumit.raj\Desktop\SDE\DSA-github\leetcode_dsa-java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46E13E92-CEE8-4ABC-9DA3-1FB946951A7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BE9C935-0C2F-4258-9D56-D89A5FB873B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="197">
   <si>
     <t>LOGIC</t>
   </si>
@@ -676,6 +676,15 @@
   </si>
   <si>
     <t>This solution uses DFS with backtracking to check if a given word can be formed by sequentially adjacent letters in the grid.It starts a recursive search from every cell matching the word’s first letter, exploring in all four directions (up, down, left, right).Each visited cell is temporarily marked to prevent reuse within the same path, then unmarked (backtracked) after exploration.The recursion succeeds if all characters in the word are found consecutively and returns true once a full match is formed.</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/letter-combinations-of-a-phone-number/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create a boolean 2*2 matrix to keep track of whether the range start..end is palindrome or not. Base case will be ,if start reaches at last means at the string length()-1 then return. In recursion we run loop to expand the substring from the current start , inside the loop we check for the condition as (s.charAt(start) == s.charAt(end) &amp;&amp; (end - start &lt;= 2 || dp[start + 1][end - 1])), means if start and end char matches then either it should be of lenght less than or equal to 2 or it is marked as palindrome in the boolean matrix., then similar steps as, marked the current substring as palindrom in matrix, add that to current path, call recursion with end+1 ast start for next stackframe, then undo the last step on rturning. </t>
+  </si>
+  <si>
+    <t>Create a map to store the character as key with their correspoinding values, base case will be if the index (using to iterate or keep track of each character in given digits) ==digits.length() means we are at last char of digits. Then fetch the current char using index, then fetch its corresponding value, then run a for loop for each char present in that digit value to make all the possible combination, inside loop just call the recursive method with incrementing the index as we have explore other options with the current char, and with concatening the current char (c) with the current path.</t>
   </si>
 </sst>
 </file>
@@ -1016,10 +1025,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O98"/>
+  <dimension ref="A1:O99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A86" zoomScale="138" workbookViewId="0">
-      <selection activeCell="I96" sqref="I96"/>
+    <sheetView tabSelected="1" topLeftCell="A87" zoomScale="138" workbookViewId="0">
+      <selection activeCell="I99" sqref="I99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2104,6 +2113,20 @@
       </c>
       <c r="G98" t="s">
         <v>4</v>
+      </c>
+      <c r="I98" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A99" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="G99" t="s">
+        <v>4</v>
+      </c>
+      <c r="I99" t="s">
+        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -2184,6 +2207,7 @@
     <hyperlink ref="B95" r:id="rId74" xr:uid="{CF7A17BF-E8F3-4C8B-9A65-A768BC783EF9}"/>
     <hyperlink ref="B96" r:id="rId75" xr:uid="{3C985415-142A-4BEC-B75D-EB7C7CC768E8}"/>
     <hyperlink ref="A97" r:id="rId76" xr:uid="{73E01CDD-735E-4623-A26B-9B0924A37B06}"/>
+    <hyperlink ref="A99" r:id="rId77" xr:uid="{EFEF0D6A-A2F3-456C-A490-89AF4FAA8F5F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>

--- a/Logics.xlsx
+++ b/Logics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sumit.raj\Desktop\SDE\DSA-github\leetcode_dsa-java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BE9C935-0C2F-4258-9D56-D89A5FB873B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F7BCB26-5116-4EE9-A7A1-B57B138FF2B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="198">
   <si>
     <t>LOGIC</t>
   </si>
@@ -685,6 +685,9 @@
   </si>
   <si>
     <t>Create a map to store the character as key with their correspoinding values, base case will be if the index (using to iterate or keep track of each character in given digits) ==digits.length() means we are at last char of digits. Then fetch the current char using index, then fetch its corresponding value, then run a for loop for each char present in that digit value to make all the possible combination, inside loop just call the recursive method with incrementing the index as we have explore other options with the current char, and with concatening the current char (c) with the current path.</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/matchsticks-to-square/</t>
   </si>
 </sst>
 </file>
@@ -1025,10 +1028,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O99"/>
+  <dimension ref="A1:O100"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A87" zoomScale="138" workbookViewId="0">
-      <selection activeCell="I99" sqref="I99"/>
+      <selection activeCell="G100" sqref="G100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2127,6 +2130,14 @@
       </c>
       <c r="I99" t="s">
         <v>196</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A100" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="G100" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -2208,6 +2219,7 @@
     <hyperlink ref="B96" r:id="rId75" xr:uid="{3C985415-142A-4BEC-B75D-EB7C7CC768E8}"/>
     <hyperlink ref="A97" r:id="rId76" xr:uid="{73E01CDD-735E-4623-A26B-9B0924A37B06}"/>
     <hyperlink ref="A99" r:id="rId77" xr:uid="{EFEF0D6A-A2F3-456C-A490-89AF4FAA8F5F}"/>
+    <hyperlink ref="A100" r:id="rId78" xr:uid="{27B6E1F3-5A51-4799-A52D-0E00ECF9057E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>

--- a/Logics.xlsx
+++ b/Logics.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sumit.raj\Desktop\SDE\DSA-github\leetcode_dsa-java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F7BCB26-5116-4EE9-A7A1-B57B138FF2B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A73E5F8-7BA6-4589-AFF8-BD75843A8537}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1416" yWindow="936" windowWidth="21624" windowHeight="11304" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="199">
   <si>
     <t>LOGIC</t>
   </si>
@@ -688,6 +688,9 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/matchsticks-to-square/</t>
+  </si>
+  <si>
+    <t>1.First, compute the total sum of all matchsticks — if it’s not divisible by 4, return false.2.Each side of the square must have a length of sum / 4. 3️.Sort the sticks in descending order to try longer ones first (helps prune impossible paths).4️.Use backtracking to assign each stick to one of 4 sides, ensuring no side exceeds the target length.5️.If all sticks are used and all sides equal the target, return true; otherwise, backtrack and try again.</t>
   </si>
 </sst>
 </file>
@@ -1030,8 +1033,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A87" zoomScale="138" workbookViewId="0">
-      <selection activeCell="G100" sqref="G100"/>
+    <sheetView tabSelected="1" topLeftCell="A92" zoomScale="138" workbookViewId="0">
+      <selection activeCell="I100" sqref="I100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2138,6 +2141,9 @@
       </c>
       <c r="G100" t="s">
         <v>4</v>
+      </c>
+      <c r="I100" t="s">
+        <v>198</v>
       </c>
     </row>
   </sheetData>

--- a/Logics.xlsx
+++ b/Logics.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sumit.raj\Desktop\SDE\DSA-github\leetcode_dsa-java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A73E5F8-7BA6-4589-AFF8-BD75843A8537}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC6BCAC4-5994-4C89-AE8E-7EB6C87F3411}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1416" yWindow="936" windowWidth="21624" windowHeight="11304" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="200">
   <si>
     <t>LOGIC</t>
   </si>
@@ -691,6 +691,9 @@
   </si>
   <si>
     <t>1.First, compute the total sum of all matchsticks — if it’s not divisible by 4, return false.2.Each side of the square must have a length of sum / 4. 3️.Sort the sticks in descending order to try longer ones first (helps prune impossible paths).4️.Use backtracking to assign each stick to one of 4 sides, ensuring no side exceeds the target length.5️.If all sticks are used and all sides equal the target, return true; otherwise, backtrack and try again.</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/partition-to-k-equal-sum-subsets/</t>
   </si>
 </sst>
 </file>
@@ -1031,10 +1034,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O100"/>
+  <dimension ref="A1:O101"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A92" zoomScale="138" workbookViewId="0">
-      <selection activeCell="I100" sqref="I100"/>
+      <selection activeCell="H101" sqref="H101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2144,6 +2147,14 @@
       </c>
       <c r="I100" t="s">
         <v>198</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A101" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="G101" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -2226,6 +2237,7 @@
     <hyperlink ref="A97" r:id="rId76" xr:uid="{73E01CDD-735E-4623-A26B-9B0924A37B06}"/>
     <hyperlink ref="A99" r:id="rId77" xr:uid="{EFEF0D6A-A2F3-456C-A490-89AF4FAA8F5F}"/>
     <hyperlink ref="A100" r:id="rId78" xr:uid="{27B6E1F3-5A51-4799-A52D-0E00ECF9057E}"/>
+    <hyperlink ref="A101" r:id="rId79" xr:uid="{BBCECA0C-7F19-47DD-ACD3-DF51E2D86AF5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>

--- a/Logics.xlsx
+++ b/Logics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sumit.raj\Desktop\SDE\DSA-github\leetcode_dsa-java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC6BCAC4-5994-4C89-AE8E-7EB6C87F3411}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD65DA1B-0B81-4D73-8451-4E15C46609C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1416" yWindow="936" windowWidth="21624" windowHeight="11304" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="201">
   <si>
     <t>LOGIC</t>
   </si>
@@ -694,6 +694,9 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/partition-to-k-equal-sum-subsets/</t>
+  </si>
+  <si>
+    <t>1.Calculate the total sum — if not divisible by k, return false.2️.Target per subset = total / k.3️.Use boolean[] used to track which elements are already in subsets.4️.Backtrack to fill subsets until each equals the target, then move to the next subset.5️.When k == 1, return true (remaining numbers form the last valid subset).</t>
   </si>
 </sst>
 </file>
@@ -1037,7 +1040,7 @@
   <dimension ref="A1:O101"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A92" zoomScale="138" workbookViewId="0">
-      <selection activeCell="H101" sqref="H101"/>
+      <selection activeCell="I101" sqref="I101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2155,6 +2158,9 @@
       </c>
       <c r="G101" t="s">
         <v>4</v>
+      </c>
+      <c r="I101" t="s">
+        <v>200</v>
       </c>
     </row>
   </sheetData>

--- a/Logics.xlsx
+++ b/Logics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sumit.raj\Desktop\SDE\DSA-github\leetcode_dsa-java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD65DA1B-0B81-4D73-8451-4E15C46609C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A139FEE9-078D-4441-A2A7-19BED0ECF6C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1416" yWindow="936" windowWidth="21624" windowHeight="11304" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="202">
   <si>
     <t>LOGIC</t>
   </si>
@@ -697,6 +697,9 @@
   </si>
   <si>
     <t>1.Calculate the total sum — if not divisible by k, return false.2️.Target per subset = total / k.3️.Use boolean[] used to track which elements are already in subsets.4️.Backtrack to fill subsets until each equals the target, then move to the next subset.5️.When k == 1, return true (remaining numbers form the last valid subset).</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/implement-trie-prefix-tree/</t>
   </si>
 </sst>
 </file>
@@ -1037,10 +1040,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O101"/>
+  <dimension ref="A1:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A92" zoomScale="138" workbookViewId="0">
-      <selection activeCell="I101" sqref="I101"/>
+      <selection activeCell="H102" sqref="H102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2161,6 +2164,14 @@
       </c>
       <c r="I101" t="s">
         <v>200</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A102" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="G102" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -2244,6 +2255,7 @@
     <hyperlink ref="A99" r:id="rId77" xr:uid="{EFEF0D6A-A2F3-456C-A490-89AF4FAA8F5F}"/>
     <hyperlink ref="A100" r:id="rId78" xr:uid="{27B6E1F3-5A51-4799-A52D-0E00ECF9057E}"/>
     <hyperlink ref="A101" r:id="rId79" xr:uid="{BBCECA0C-7F19-47DD-ACD3-DF51E2D86AF5}"/>
+    <hyperlink ref="A102" r:id="rId80" xr:uid="{F4F40314-DC79-4B53-92AC-6E7C67CF539A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>

--- a/Logics.xlsx
+++ b/Logics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sumit.raj\Desktop\SDE\DSA-github\leetcode_dsa-java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A139FEE9-078D-4441-A2A7-19BED0ECF6C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3550B39F-FC90-4D4B-90EC-54CB6BEC1BD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1416" yWindow="936" windowWidth="21624" windowHeight="11304" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1043,7 +1043,7 @@
   <dimension ref="A1:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A92" zoomScale="138" workbookViewId="0">
-      <selection activeCell="H102" sqref="H102"/>
+      <selection activeCell="I102" sqref="I102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2172,6 +2172,9 @@
       </c>
       <c r="G102" t="s">
         <v>4</v>
+      </c>
+      <c r="I102">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Logics.xlsx
+++ b/Logics.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sumit.raj\Desktop\SDE\DSA-github\leetcode_dsa-java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3550B39F-FC90-4D4B-90EC-54CB6BEC1BD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{431B058D-F4DC-47BB-8066-86644227A6BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1416" yWindow="936" windowWidth="21624" windowHeight="11304" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="203">
   <si>
     <t>LOGIC</t>
   </si>
@@ -700,6 +700,9 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/implement-trie-prefix-tree/</t>
+  </si>
+  <si>
+    <t>Each character of a word is stored as a path in a tree where every node has 26 possible children (a–z).insert() builds this path by creating missing nodes and marking the last node as an end-of-word.search() follows the same path and returns true only if the entire path exists and the final node is marked as an end-of-word.startsWith() checks only whether the prefix path exists, without needing the end-of-word flag.</t>
   </si>
 </sst>
 </file>
@@ -1042,8 +1045,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A92" zoomScale="138" workbookViewId="0">
-      <selection activeCell="I102" sqref="I102"/>
+    <sheetView tabSelected="1" topLeftCell="A88" zoomScale="138" workbookViewId="0">
+      <selection activeCell="J102" sqref="J102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2111,7 +2114,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
         <v>40</v>
       </c>
@@ -2122,7 +2125,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>192</v>
       </c>
@@ -2133,7 +2136,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
         <v>194</v>
       </c>
@@ -2144,7 +2147,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
         <v>197</v>
       </c>
@@ -2155,7 +2158,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
         <v>199</v>
       </c>
@@ -2166,15 +2169,15 @@
         <v>200</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
         <v>201</v>
       </c>
       <c r="G102" t="s">
         <v>4</v>
       </c>
-      <c r="I102">
-        <v>1</v>
+      <c r="J102" t="s">
+        <v>202</v>
       </c>
     </row>
   </sheetData>

--- a/Logics.xlsx
+++ b/Logics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sumit.raj\Desktop\SDE\DSA-github\leetcode_dsa-java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{431B058D-F4DC-47BB-8066-86644227A6BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{000C6728-9399-4262-9424-4CBABBCD9281}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -702,7 +702,7 @@
     <t>https://leetcode.com/problems/implement-trie-prefix-tree/</t>
   </si>
   <si>
-    <t>Each character of a word is stored as a path in a tree where every node has 26 possible children (a–z).insert() builds this path by creating missing nodes and marking the last node as an end-of-word.search() follows the same path and returns true only if the entire path exists and the final node is marked as an end-of-word.startsWith() checks only whether the prefix path exists, without needing the end-of-word flag.</t>
+    <t>1. Each character of a word is stored as a path in a tree where every node has 26 possible children (a–z). 2. insert() builds this path by creating missing nodes and marking the last node as an end-of-word. 3. search() follows the same path and returns true only if the entire path exists and the final node is marked as an end-of-word. 4. startsWith() checks only whether the prefix path exists, without needing the end-of-word flag.</t>
   </si>
 </sst>
 </file>
@@ -1045,7 +1045,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" zoomScale="138" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A90" zoomScale="138" workbookViewId="0">
       <selection activeCell="J102" sqref="J102"/>
     </sheetView>
   </sheetViews>
